--- a/nmadb/476343.xlsx
+++ b/nmadb/476343.xlsx
@@ -1,6 +1,768 @@
 
-<file path=theme/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="240" yWindow="30" windowWidth="21255" windowHeight="9990"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+  </sheets>
+  <calcPr calcId="124519"/>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>Study year</t>
+  </si>
+  <si>
+    <t>Study name</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>HR (t1 vs.t 2)</t>
+  </si>
+  <si>
+    <t>CIL</t>
+  </si>
+  <si>
+    <t>CIH</t>
+  </si>
+  <si>
+    <t>Beneficial</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Outcome:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> Overall survival in the platinum-sensitive recurrent ovarian cancer</t>
+    </r>
+  </si>
+  <si>
+    <t>Alberts</t>
+  </si>
+  <si>
+    <t>Bafaloukos</t>
+  </si>
+  <si>
+    <t>Treatments</t>
+  </si>
+  <si>
+    <t>PLDH + carboplatin</t>
+  </si>
+  <si>
+    <t>ICON4/AGO-OVAR 2.261</t>
+  </si>
+  <si>
+    <t>Carboplatin alone every 4 weeks</t>
+  </si>
+  <si>
+    <t>CALYPSO</t>
+  </si>
+  <si>
+    <t>Paclitaxel + carboplatin</t>
+  </si>
+  <si>
+    <t>Gonzalez-Martin</t>
+  </si>
+  <si>
+    <t>Carboplatin alone every day</t>
+  </si>
+  <si>
+    <t>Pfisterer</t>
+  </si>
+  <si>
+    <t>Gemcitabine plus carboplatin</t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="23">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="10">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.49995422223578601"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="43">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+  </cellXfs>
+  <cellStyles count="43">
+    <cellStyle name="20% - Accent1" xfId="2"/>
+    <cellStyle name="20% - Accent2" xfId="3"/>
+    <cellStyle name="20% - Accent3" xfId="4"/>
+    <cellStyle name="20% - Accent4" xfId="5"/>
+    <cellStyle name="20% - Accent5" xfId="6"/>
+    <cellStyle name="20% - Accent6" xfId="7"/>
+    <cellStyle name="40% - Accent1" xfId="8"/>
+    <cellStyle name="40% - Accent2" xfId="9"/>
+    <cellStyle name="40% - Accent3" xfId="10"/>
+    <cellStyle name="40% - Accent4" xfId="11"/>
+    <cellStyle name="40% - Accent5" xfId="12"/>
+    <cellStyle name="40% - Accent6" xfId="13"/>
+    <cellStyle name="60% - Accent1" xfId="14"/>
+    <cellStyle name="60% - Accent2" xfId="15"/>
+    <cellStyle name="60% - Accent3" xfId="16"/>
+    <cellStyle name="60% - Accent4" xfId="17"/>
+    <cellStyle name="60% - Accent5" xfId="18"/>
+    <cellStyle name="60% - Accent6" xfId="19"/>
+    <cellStyle name="Accent1 2" xfId="20" customBuiltin="1"/>
+    <cellStyle name="Accent2 2" xfId="21" customBuiltin="1"/>
+    <cellStyle name="Accent3 2" xfId="22" customBuiltin="1"/>
+    <cellStyle name="Accent4 2" xfId="23" customBuiltin="1"/>
+    <cellStyle name="Accent5 2" xfId="24" customBuiltin="1"/>
+    <cellStyle name="Accent6 2" xfId="25" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="26"/>
+    <cellStyle name="Calculation" xfId="27"/>
+    <cellStyle name="Check Cell" xfId="28"/>
+    <cellStyle name="Explanatory Text" xfId="29"/>
+    <cellStyle name="Good" xfId="30"/>
+    <cellStyle name="Heading 1" xfId="31"/>
+    <cellStyle name="Heading 2" xfId="32"/>
+    <cellStyle name="Heading 3" xfId="33"/>
+    <cellStyle name="Heading 4" xfId="34"/>
+    <cellStyle name="Input" xfId="35"/>
+    <cellStyle name="Linked Cell" xfId="36"/>
+    <cellStyle name="Neutral" xfId="37"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Note" xfId="38"/>
+    <cellStyle name="Output" xfId="39"/>
+    <cellStyle name="Title" xfId="40"/>
+    <cellStyle name="Total 2" xfId="41" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="42"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+</styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6858000" y="2857500"/>
+          <a:ext cx="5257800" cy="2247900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -74,7 +836,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -109,7 +870,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -144,16 +904,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -275,50 +1039,454 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
-<file path=theme/theme/themeManager.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeManager xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="4">
+        <v>2008</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="H2" s="12">
+        <v>1.21</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="4">
+        <v>2010</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>3</v>
+      </c>
+      <c r="F3" s="10">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0.78</v>
+      </c>
+      <c r="H3" s="13">
+        <v>1.66</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="9">
+        <v>1</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="4">
+        <v>2003</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="14">
+        <v>4</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.82</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0.69</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0.97</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9">
+        <v>2</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4">
+        <v>4</v>
+      </c>
+      <c r="D5" s="14">
+        <v>1</v>
+      </c>
+      <c r="E5" s="14">
+        <v>3</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.99</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="H5" s="13">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9">
+        <v>3</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="4">
+        <v>2005</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3</v>
+      </c>
+      <c r="E6" s="14">
+        <v>4</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.31</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0.68</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9">
+        <v>4</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="4">
+        <v>2006</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4">
+        <v>5</v>
+      </c>
+      <c r="E7" s="14">
+        <v>4</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0.96</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="H7" s="13">
+        <v>1.23</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9">
+        <v>5</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="6"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="6"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="6:7">
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="6:7">
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="6:7">
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="6:7">
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="6:7">
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="6:7">
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>